--- a/src/test/java/testResources/data.xlsx
+++ b/src/test/java/testResources/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>http://localhost/Avactis/product-list.php?Apparel-pg1-cid35.html</t>
   </si>
@@ -79,6 +79,30 @@
   </si>
   <si>
     <t>http://localhost/Avactis/product-info.php?Avactis_Shopping_Cart_Web_Manual_-_Downloadable_products-pid33.html</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Pure cotton T-Shirt</t>
+  </si>
+  <si>
+    <t>Dell Inspiron Slim Desktop</t>
+  </si>
+  <si>
+    <t>Avactis Shopping Cart Web Manual</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>three</t>
   </si>
 </sst>
 </file>
@@ -438,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,9 +476,10 @@
     <col min="5" max="5" width="62.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="69.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="71.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -476,8 +501,14 @@
       <c r="G1" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="H1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -499,8 +530,14 @@
       <c r="G2" t="s">
         <v>5</v>
       </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -522,8 +559,14 @@
       <c r="G3" t="s">
         <v>5</v>
       </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -545,12 +588,18 @@
       <c r="G4" t="s">
         <v>5</v>
       </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
